--- a/data/136/BOI/Price-competitiveness indicator_historical.xlsx
+++ b/data/136/BOI/Price-competitiveness indicator_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:WX2"/>
+  <dimension ref="A1:XA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3472,6 +3472,21 @@
           <t>2021-09</t>
         </is>
       </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4272,1075 +4287,1084 @@
         <v>117.8838</v>
       </c>
       <c r="JF2" t="n">
-        <v>114.04456</v>
+        <v>114.05219</v>
       </c>
       <c r="JG2" t="n">
-        <v>113.38728</v>
+        <v>113.38895</v>
       </c>
       <c r="JH2" t="n">
-        <v>112.77774</v>
+        <v>112.79336</v>
       </c>
       <c r="JI2" t="n">
-        <v>112.5584</v>
+        <v>112.56954</v>
       </c>
       <c r="JJ2" t="n">
-        <v>112.64955</v>
+        <v>112.65847</v>
       </c>
       <c r="JK2" t="n">
-        <v>113.01441</v>
+        <v>113.02122</v>
       </c>
       <c r="JL2" t="n">
-        <v>120.68359</v>
+        <v>120.69136</v>
       </c>
       <c r="JM2" t="n">
-        <v>122.03762</v>
+        <v>122.04472</v>
       </c>
       <c r="JN2" t="n">
-        <v>116.18687</v>
+        <v>116.1913</v>
       </c>
       <c r="JO2" t="n">
-        <v>107.03845</v>
+        <v>107.05428</v>
       </c>
       <c r="JP2" t="n">
-        <v>107.45667</v>
+        <v>107.46628</v>
       </c>
       <c r="JQ2" t="n">
-        <v>104.06738</v>
+        <v>104.07437</v>
       </c>
       <c r="JR2" t="n">
-        <v>100.33193</v>
+        <v>100.34176</v>
       </c>
       <c r="JS2" t="n">
-        <v>98.43252</v>
+        <v>98.437</v>
       </c>
       <c r="JT2" t="n">
-        <v>96.14931</v>
+        <v>96.16159</v>
       </c>
       <c r="JU2" t="n">
-        <v>97.37231</v>
+        <v>97.37775000000001</v>
       </c>
       <c r="JV2" t="n">
-        <v>101.66174</v>
+        <v>101.66397</v>
       </c>
       <c r="JW2" t="n">
-        <v>102.13063</v>
+        <v>102.14296</v>
       </c>
       <c r="JX2" t="n">
-        <v>99.28129</v>
+        <v>99.29119</v>
       </c>
       <c r="JY2" t="n">
-        <v>97.99257</v>
+        <v>98.00057</v>
       </c>
       <c r="JZ2" t="n">
-        <v>97.81004</v>
+        <v>97.815</v>
       </c>
       <c r="KA2" t="n">
-        <v>95.04340000000001</v>
+        <v>95.04624</v>
       </c>
       <c r="KB2" t="n">
-        <v>94.4966</v>
+        <v>94.49798</v>
       </c>
       <c r="KC2" t="n">
-        <v>93.3165</v>
+        <v>93.33016000000001</v>
       </c>
       <c r="KD2" t="n">
-        <v>94.71646</v>
+        <v>94.72230999999999</v>
       </c>
       <c r="KE2" t="n">
-        <v>95.24164</v>
+        <v>95.24625</v>
       </c>
       <c r="KF2" t="n">
-        <v>95.1661</v>
+        <v>95.16727</v>
       </c>
       <c r="KG2" t="n">
-        <v>97.91551</v>
+        <v>97.91779</v>
       </c>
       <c r="KH2" t="n">
-        <v>98.47686</v>
+        <v>98.48891999999999</v>
       </c>
       <c r="KI2" t="n">
+        <v>97.20390999999999</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>96.3783</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>95.23649</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>95.53055999999999</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>95.56209</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>94.40654000000001</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>93.38330999999999</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>93.41618</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>92.39485000000001</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>86.36248999999999</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>84.22423000000001</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>88.83719000000001</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>89.31861000000001</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>90.72461</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>93.37389</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>93.76461</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>92.43853</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>93.30278</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>94.2054</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>95.72144</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>96.69822000000001</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>97.74164</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>98.47541</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>99.78542</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>100.55548</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>100.79959</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>100.48094</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>101.06933</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>101.29495</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>101.20896</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>101.96447</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>101.75819</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>99.57632</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>98.01085999999999</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>98.46454</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>98.62282999999999</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>98.65112999999999</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>98.04848</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>97.10702000000001</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>98.58583</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>99.01164</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>99.82792000000001</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>99.88334</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>99.88933</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>99.40302</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>99.4164</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>99.34954</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>100.77927</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>101.08018</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>100.92723</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>101.5046</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>103.70036</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>104.0324</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>103.00769</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>103.471</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>103.74017</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>102.87178</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>101.83006</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>100.67338</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>100.13915</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>99.21335000000001</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>99.09789000000001</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>99.62193000000001</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>98.76260000000001</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>99.43035999999999</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>97.93331999999999</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>96.68602</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>97.22691</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>96.26399000000001</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>95.49623</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>94.69434</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>93.76051</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>95.35063</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>94.83192</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>93.43152000000001</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>92.36017</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>91.66952999999999</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>91.80685</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>93.60751999999999</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>95.93017999999999</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>95.35883</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>95.20075</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>94.96284</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>93.82455</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>93.27946</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>93.86618</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>95.43568999999999</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>95.6285</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>95.80313</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>95.16461</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>95.40842000000001</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>95.69059</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>95.22127</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>95.18557</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>95.11553000000001</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>96.2813</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>97.71835</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>98.971</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>98.71935999999999</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>98.62428</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>98.74512</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>99.22696999999999</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>99.70646000000001</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>101.15443</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>101.45877</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>101.43822</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>101.75934</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>103.83437</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>103.97655</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>103.36479</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>102.62686</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>102.47635</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>103.5837</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>103.48244</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>104.89243</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>105.44537</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>105.3836</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>104.4339</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>103.53323</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>104.23296</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>104.35973</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>104.41107</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>104.2078</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>104.23634</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>104.45798</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>105.1939</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>105.97388</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>105.3479</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>104.70666</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>104.89491</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>104.06438</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>103.22048</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>102.02352</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>101.72019</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>102.06674</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>101.31194</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>100.7517</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>100.47161</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>100.63692</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>101.91643</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>101.72832</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>102.24122</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>102.43831</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>103.45407</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>103.36584</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>103.44868</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>103.14998</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>102.52395</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>101.90767</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>102.24617</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>102.73347</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>102.72579</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>103.07168</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>103.22005</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>103.86493</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>103.48262</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>103.33512</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>103.67514</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>103.69023</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>104.51576</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>104.77988</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>105.69162</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>105.21646</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>105.06399</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>104.91575</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>106.14146</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>106.13047</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>105.67357</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>105.24512</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>105.28175</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>103.63002</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>103.01708</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>100.81</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>99.9945</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>102.8826</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>103.05244</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>102.392</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>103.28528</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>102.61743</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>103.10031</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>103.8697</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>103.5492</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>103.66072</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>104.04449</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>104.48614</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>104.43812</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>103.7147</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>103.26427</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>101.67198</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>100.77284</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>99.68978</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>97.99789</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>97.03309</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>98.12616</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>97.88925999999999</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>98.01394000000001</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>99.45083</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>98.58896</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>97.12188999999999</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>97.29446</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>97.85221</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>98.59128</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>99.18245</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>98.57687</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>98.75358</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>98.33019</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>98.58128000000001</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>98.0676</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>98.33812</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>98.11574</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>97.51134</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>96.80788</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>96.97939</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>97.02291</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>96.42894</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>95.87114</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>95.72847</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>95.25892</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>95.47913</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>96.34421</v>
+      </c>
+      <c r="SU2" t="n">
+        <v>96.45084</v>
+      </c>
+      <c r="SV2" t="n">
+        <v>96.02325</v>
+      </c>
+      <c r="SW2" t="n">
+        <v>96.90558</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>97.56968000000001</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>97.90843</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>96.97572</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>97.1002</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>97.29322999999999</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>98.29407</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>98.26854</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>98.92641999999999</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>98.9629</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>99.34059000000001</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>99.20728</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>99.97663</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>99.68084</v>
+      </c>
+      <c r="TK2" t="n">
+        <v>99.64436000000001</v>
+      </c>
+      <c r="TL2" t="n">
+        <v>100.10761</v>
+      </c>
+      <c r="TM2" t="n">
+        <v>99.89481000000001</v>
+      </c>
+      <c r="TN2" t="n">
+        <v>99.45583999999999</v>
+      </c>
+      <c r="TO2" t="n">
+        <v>99.15298</v>
+      </c>
+      <c r="TP2" t="n">
+        <v>98.89403</v>
+      </c>
+      <c r="TQ2" t="n">
+        <v>98.61066</v>
+      </c>
+      <c r="TR2" t="n">
+        <v>97.80403</v>
+      </c>
+      <c r="TS2" t="n">
+        <v>97.72237</v>
+      </c>
+      <c r="TT2" t="n">
+        <v>98.03368</v>
+      </c>
+      <c r="TU2" t="n">
+        <v>98.86450000000001</v>
+      </c>
+      <c r="TV2" t="n">
+        <v>97.1088</v>
+      </c>
+      <c r="TW2" t="n">
+        <v>96.66882</v>
+      </c>
+      <c r="TX2" t="n">
+        <v>95.08190999999999</v>
+      </c>
+      <c r="TY2" t="n">
+        <v>94.39483</v>
+      </c>
+      <c r="TZ2" t="n">
+        <v>95.32940000000001</v>
+      </c>
+      <c r="UA2" t="n">
+        <v>95.91388000000001</v>
+      </c>
+      <c r="UB2" t="n">
+        <v>95.4118</v>
+      </c>
+      <c r="UC2" t="n">
+        <v>96.85881000000001</v>
+      </c>
+      <c r="UD2" t="n">
+        <v>97.62112999999999</v>
+      </c>
+      <c r="UE2" t="n">
+        <v>97.30089</v>
+      </c>
+      <c r="UF2" t="n">
+        <v>95.63851</v>
+      </c>
+      <c r="UG2" t="n">
+        <v>96.62651</v>
+      </c>
+      <c r="UH2" t="n">
+        <v>97.45025</v>
+      </c>
+      <c r="UI2" t="n">
+        <v>98.16596</v>
+      </c>
+      <c r="UJ2" t="n">
+        <v>97.47121</v>
+      </c>
+      <c r="UK2" t="n">
+        <v>97.55565</v>
+      </c>
+      <c r="UL2" t="n">
+        <v>97.77772</v>
+      </c>
+      <c r="UM2" t="n">
+        <v>97.40813</v>
+      </c>
+      <c r="UN2" t="n">
+        <v>97.19731</v>
+      </c>
+      <c r="UO2" t="n">
+        <v>97.44298999999999</v>
+      </c>
+      <c r="UP2" t="n">
+        <v>97.43812</v>
+      </c>
+      <c r="UQ2" t="n">
         <v>97.19802</v>
       </c>
-      <c r="KJ2" t="n">
-        <v>96.37981000000001</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>95.24328</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>95.53003</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>95.55633</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>94.40648</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>93.38126</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>93.41305</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>92.39288999999999</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>86.35592</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>84.22226999999999</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>88.83360999999999</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>89.32137</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>90.71878</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>93.36991999999999</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>93.76577</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>92.43462</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>93.30045</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>94.20381999999999</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>95.72183</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>96.70114</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>97.73287999999999</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>98.46973</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>99.77686</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>100.55453</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>100.80212</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>100.48176</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>101.06104</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>101.28708</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>101.21148</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>101.96693</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>101.74877</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>99.56728</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>98.00601</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>98.4619</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>98.6249</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>98.65141</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>98.05065999999999</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>97.09948</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>98.58162</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>99.00843</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>99.82669</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>99.88046</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>99.89003</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>99.40494</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>99.41744</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>99.35305</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>100.78101</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>101.07993</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>100.92771</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>101.50209</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>103.69574</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>104.02486</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>103.01142</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>103.47326</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>103.74487</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>102.87447</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>101.83266</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>100.67713</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>100.14308</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>99.20631</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>99.09802000000001</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>99.61357</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>98.75897000000001</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>99.43259</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>97.93702</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>96.68131</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>97.22439</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>96.26186</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>95.49387</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>94.69228</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>93.75848999999999</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>95.34845</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>94.82953000000001</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>93.42928000000001</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>92.358</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>91.66736</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>91.80485</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>93.60536</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>95.92824</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>95.35656</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>95.19847</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>94.96075999999999</v>
-      </c>
-      <c r="NN2" t="n">
-        <v>93.82237000000001</v>
-      </c>
-      <c r="NO2" t="n">
-        <v>93.27726</v>
-      </c>
-      <c r="NP2" t="n">
-        <v>93.86418</v>
-      </c>
-      <c r="NQ2" t="n">
-        <v>95.43340999999999</v>
-      </c>
-      <c r="NR2" t="n">
-        <v>95.62626</v>
-      </c>
-      <c r="NS2" t="n">
-        <v>95.80115000000001</v>
-      </c>
-      <c r="NT2" t="n">
-        <v>95.16285999999999</v>
-      </c>
-      <c r="NU2" t="n">
-        <v>95.40557</v>
-      </c>
-      <c r="NV2" t="n">
-        <v>95.68798</v>
-      </c>
-      <c r="NW2" t="n">
-        <v>95.2192</v>
-      </c>
-      <c r="NX2" t="n">
-        <v>95.18374</v>
-      </c>
-      <c r="NY2" t="n">
-        <v>95.11337</v>
-      </c>
-      <c r="NZ2" t="n">
-        <v>96.27915</v>
-      </c>
-      <c r="OA2" t="n">
-        <v>97.7162</v>
-      </c>
-      <c r="OB2" t="n">
-        <v>98.96879</v>
-      </c>
-      <c r="OC2" t="n">
-        <v>98.71708</v>
-      </c>
-      <c r="OD2" t="n">
-        <v>98.6219</v>
-      </c>
-      <c r="OE2" t="n">
-        <v>98.74289</v>
-      </c>
-      <c r="OF2" t="n">
-        <v>99.22474</v>
-      </c>
-      <c r="OG2" t="n">
-        <v>99.70424</v>
-      </c>
-      <c r="OH2" t="n">
-        <v>101.15209</v>
-      </c>
-      <c r="OI2" t="n">
-        <v>101.45645</v>
-      </c>
-      <c r="OJ2" t="n">
-        <v>101.43594</v>
-      </c>
-      <c r="OK2" t="n">
-        <v>101.75744</v>
-      </c>
-      <c r="OL2" t="n">
-        <v>103.83192</v>
-      </c>
-      <c r="OM2" t="n">
-        <v>103.97389</v>
-      </c>
-      <c r="ON2" t="n">
-        <v>103.36216</v>
-      </c>
-      <c r="OO2" t="n">
-        <v>102.62467</v>
-      </c>
-      <c r="OP2" t="n">
-        <v>102.47423</v>
-      </c>
-      <c r="OQ2" t="n">
-        <v>103.58144</v>
-      </c>
-      <c r="OR2" t="n">
-        <v>103.4801</v>
-      </c>
-      <c r="OS2" t="n">
-        <v>104.88994</v>
-      </c>
-      <c r="OT2" t="n">
-        <v>105.44314</v>
-      </c>
-      <c r="OU2" t="n">
-        <v>105.381</v>
-      </c>
-      <c r="OV2" t="n">
-        <v>104.43149</v>
-      </c>
-      <c r="OW2" t="n">
-        <v>103.53109</v>
-      </c>
-      <c r="OX2" t="n">
-        <v>104.23048</v>
-      </c>
-      <c r="OY2" t="n">
-        <v>104.35722</v>
-      </c>
-      <c r="OZ2" t="n">
-        <v>104.4087</v>
-      </c>
-      <c r="PA2" t="n">
-        <v>104.20535</v>
-      </c>
-      <c r="PB2" t="n">
-        <v>104.23387</v>
-      </c>
-      <c r="PC2" t="n">
-        <v>104.45558</v>
-      </c>
-      <c r="PD2" t="n">
-        <v>105.19143</v>
-      </c>
-      <c r="PE2" t="n">
-        <v>105.97145</v>
-      </c>
-      <c r="PF2" t="n">
-        <v>105.34536</v>
-      </c>
-      <c r="PG2" t="n">
-        <v>104.70435</v>
-      </c>
-      <c r="PH2" t="n">
-        <v>104.89256</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>104.06204</v>
-      </c>
-      <c r="PJ2" t="n">
-        <v>103.21802</v>
-      </c>
-      <c r="PK2" t="n">
-        <v>102.02124</v>
-      </c>
-      <c r="PL2" t="n">
-        <v>101.71796</v>
-      </c>
-      <c r="PM2" t="n">
-        <v>102.06429</v>
-      </c>
-      <c r="PN2" t="n">
-        <v>101.30964</v>
-      </c>
-      <c r="PO2" t="n">
-        <v>100.7494</v>
-      </c>
-      <c r="PP2" t="n">
-        <v>100.4693</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>100.63463</v>
-      </c>
-      <c r="PR2" t="n">
-        <v>101.91417</v>
-      </c>
-      <c r="PS2" t="n">
-        <v>101.72587</v>
-      </c>
-      <c r="PT2" t="n">
-        <v>102.23894</v>
-      </c>
-      <c r="PU2" t="n">
-        <v>102.43603</v>
-      </c>
-      <c r="PV2" t="n">
-        <v>103.45167</v>
-      </c>
-      <c r="PW2" t="n">
-        <v>103.36346</v>
-      </c>
-      <c r="PX2" t="n">
-        <v>103.44647</v>
-      </c>
-      <c r="PY2" t="n">
-        <v>103.14759</v>
-      </c>
-      <c r="PZ2" t="n">
-        <v>102.52149</v>
-      </c>
-      <c r="QA2" t="n">
-        <v>101.90525</v>
-      </c>
-      <c r="QB2" t="n">
-        <v>102.24379</v>
-      </c>
-      <c r="QC2" t="n">
-        <v>102.73126</v>
-      </c>
-      <c r="QD2" t="n">
-        <v>102.72354</v>
-      </c>
-      <c r="QE2" t="n">
-        <v>103.06868</v>
-      </c>
-      <c r="QF2" t="n">
-        <v>103.21823</v>
-      </c>
-      <c r="QG2" t="n">
-        <v>103.86259</v>
-      </c>
-      <c r="QH2" t="n">
-        <v>103.48017</v>
-      </c>
-      <c r="QI2" t="n">
-        <v>103.33281</v>
-      </c>
-      <c r="QJ2" t="n">
-        <v>103.67311</v>
-      </c>
-      <c r="QK2" t="n">
-        <v>103.68788</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>104.51301</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>104.77745</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>105.68914</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>105.21416</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>105.06116</v>
-      </c>
-      <c r="QQ2" t="n">
-        <v>104.91371</v>
-      </c>
-      <c r="QR2" t="n">
-        <v>106.13909</v>
-      </c>
-      <c r="QS2" t="n">
-        <v>106.12796</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>105.67098</v>
-      </c>
-      <c r="QU2" t="n">
-        <v>105.24298</v>
-      </c>
-      <c r="QV2" t="n">
-        <v>105.28023</v>
-      </c>
-      <c r="QW2" t="n">
-        <v>103.62763</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>103.01386</v>
-      </c>
-      <c r="QY2" t="n">
-        <v>100.80719</v>
-      </c>
-      <c r="QZ2" t="n">
-        <v>99.9926</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>102.88037</v>
-      </c>
-      <c r="RB2" t="n">
-        <v>103.05035</v>
-      </c>
-      <c r="RC2" t="n">
-        <v>102.38946</v>
-      </c>
-      <c r="RD2" t="n">
-        <v>103.28285</v>
-      </c>
-      <c r="RE2" t="n">
-        <v>102.6149</v>
-      </c>
-      <c r="RF2" t="n">
-        <v>103.09789</v>
-      </c>
-      <c r="RG2" t="n">
-        <v>103.86757</v>
-      </c>
-      <c r="RH2" t="n">
-        <v>103.54752</v>
-      </c>
-      <c r="RI2" t="n">
-        <v>103.65802</v>
-      </c>
-      <c r="RJ2" t="n">
-        <v>104.04176</v>
-      </c>
-      <c r="RK2" t="n">
-        <v>104.48412</v>
-      </c>
-      <c r="RL2" t="n">
-        <v>104.43554</v>
-      </c>
-      <c r="RM2" t="n">
-        <v>103.71216</v>
-      </c>
-      <c r="RN2" t="n">
-        <v>103.26168</v>
-      </c>
-      <c r="RO2" t="n">
-        <v>101.66997</v>
-      </c>
-      <c r="RP2" t="n">
-        <v>100.77044</v>
-      </c>
-      <c r="RQ2" t="n">
-        <v>99.68736</v>
-      </c>
-      <c r="RR2" t="n">
-        <v>97.99545999999999</v>
-      </c>
-      <c r="RS2" t="n">
-        <v>97.0312</v>
-      </c>
-      <c r="RT2" t="n">
-        <v>98.12387</v>
-      </c>
-      <c r="RU2" t="n">
-        <v>97.88717</v>
-      </c>
-      <c r="RV2" t="n">
-        <v>98.01161</v>
-      </c>
-      <c r="RW2" t="n">
-        <v>99.44898000000001</v>
-      </c>
-      <c r="RX2" t="n">
-        <v>98.58651999999999</v>
-      </c>
-      <c r="RY2" t="n">
-        <v>97.11944</v>
-      </c>
-      <c r="RZ2" t="n">
-        <v>97.29210999999999</v>
-      </c>
-      <c r="SA2" t="n">
-        <v>97.85016</v>
-      </c>
-      <c r="SB2" t="n">
-        <v>98.58897</v>
-      </c>
-      <c r="SC2" t="n">
-        <v>99.18000000000001</v>
-      </c>
-      <c r="SD2" t="n">
-        <v>98.57451</v>
-      </c>
-      <c r="SE2" t="n">
-        <v>98.75163000000001</v>
-      </c>
-      <c r="SF2" t="n">
-        <v>98.32871</v>
-      </c>
-      <c r="SG2" t="n">
-        <v>98.57874</v>
-      </c>
-      <c r="SH2" t="n">
-        <v>98.06488</v>
-      </c>
-      <c r="SI2" t="n">
-        <v>98.33617</v>
-      </c>
-      <c r="SJ2" t="n">
-        <v>98.11335</v>
-      </c>
-      <c r="SK2" t="n">
-        <v>97.50896</v>
-      </c>
-      <c r="SL2" t="n">
-        <v>96.80587</v>
-      </c>
-      <c r="SM2" t="n">
-        <v>96.97705999999999</v>
-      </c>
-      <c r="SN2" t="n">
-        <v>97.0206</v>
-      </c>
-      <c r="SO2" t="n">
-        <v>96.42659</v>
-      </c>
-      <c r="SP2" t="n">
-        <v>95.86882</v>
-      </c>
-      <c r="SQ2" t="n">
-        <v>95.72656000000001</v>
-      </c>
-      <c r="SR2" t="n">
-        <v>95.2567</v>
-      </c>
-      <c r="SS2" t="n">
-        <v>95.47709</v>
-      </c>
-      <c r="ST2" t="n">
-        <v>96.34191</v>
-      </c>
-      <c r="SU2" t="n">
-        <v>96.44906</v>
-      </c>
-      <c r="SV2" t="n">
-        <v>96.0209</v>
-      </c>
-      <c r="SW2" t="n">
-        <v>96.90309999999999</v>
-      </c>
-      <c r="SX2" t="n">
-        <v>97.5673</v>
-      </c>
-      <c r="SY2" t="n">
-        <v>97.90648</v>
-      </c>
-      <c r="SZ2" t="n">
-        <v>96.97336</v>
-      </c>
-      <c r="TA2" t="n">
-        <v>97.098</v>
-      </c>
-      <c r="TB2" t="n">
-        <v>97.29086</v>
-      </c>
-      <c r="TC2" t="n">
-        <v>98.29196</v>
-      </c>
-      <c r="TD2" t="n">
-        <v>98.26725</v>
-      </c>
-      <c r="TE2" t="n">
-        <v>98.92374</v>
-      </c>
-      <c r="TF2" t="n">
-        <v>98.96008</v>
-      </c>
-      <c r="TG2" t="n">
-        <v>99.33865</v>
-      </c>
-      <c r="TH2" t="n">
-        <v>99.20487</v>
-      </c>
-      <c r="TI2" t="n">
-        <v>99.97416</v>
-      </c>
-      <c r="TJ2" t="n">
-        <v>99.67855</v>
-      </c>
-      <c r="TK2" t="n">
-        <v>99.64225</v>
-      </c>
-      <c r="TL2" t="n">
-        <v>100.10517</v>
-      </c>
-      <c r="TM2" t="n">
-        <v>99.89265</v>
-      </c>
-      <c r="TN2" t="n">
-        <v>99.45348</v>
-      </c>
-      <c r="TO2" t="n">
-        <v>99.15067999999999</v>
-      </c>
-      <c r="TP2" t="n">
-        <v>98.89243</v>
-      </c>
-      <c r="TQ2" t="n">
-        <v>98.60738000000001</v>
-      </c>
-      <c r="TR2" t="n">
-        <v>97.80215</v>
-      </c>
-      <c r="TS2" t="n">
-        <v>97.72049</v>
-      </c>
-      <c r="TT2" t="n">
-        <v>98.03134</v>
-      </c>
-      <c r="TU2" t="n">
-        <v>98.86198</v>
-      </c>
-      <c r="TV2" t="n">
-        <v>97.10615</v>
-      </c>
-      <c r="TW2" t="n">
-        <v>96.66686</v>
-      </c>
-      <c r="TX2" t="n">
-        <v>95.07991</v>
-      </c>
-      <c r="TY2" t="n">
-        <v>94.39249</v>
-      </c>
-      <c r="TZ2" t="n">
-        <v>95.32720999999999</v>
-      </c>
-      <c r="UA2" t="n">
-        <v>95.91189</v>
-      </c>
-      <c r="UB2" t="n">
-        <v>95.41032</v>
-      </c>
-      <c r="UC2" t="n">
-        <v>96.85581000000001</v>
-      </c>
-      <c r="UD2" t="n">
-        <v>97.61897</v>
-      </c>
-      <c r="UE2" t="n">
-        <v>97.29904999999999</v>
-      </c>
-      <c r="UF2" t="n">
-        <v>95.63623</v>
-      </c>
-      <c r="UG2" t="n">
-        <v>96.62397</v>
-      </c>
-      <c r="UH2" t="n">
-        <v>97.44743</v>
-      </c>
-      <c r="UI2" t="n">
-        <v>98.16404</v>
-      </c>
-      <c r="UJ2" t="n">
-        <v>97.46921</v>
-      </c>
-      <c r="UK2" t="n">
-        <v>97.55329999999999</v>
-      </c>
-      <c r="UL2" t="n">
-        <v>97.77552</v>
-      </c>
-      <c r="UM2" t="n">
-        <v>97.40594</v>
-      </c>
-      <c r="UN2" t="n">
-        <v>97.19513999999999</v>
-      </c>
-      <c r="UO2" t="n">
-        <v>97.44068</v>
-      </c>
-      <c r="UP2" t="n">
-        <v>97.43586999999999</v>
-      </c>
-      <c r="UQ2" t="n">
-        <v>97.19567000000001</v>
-      </c>
       <c r="UR2" t="n">
-        <v>96.59650000000001</v>
+        <v>96.59871</v>
       </c>
       <c r="US2" t="n">
-        <v>96.09650000000001</v>
+        <v>96.09862</v>
       </c>
       <c r="UT2" t="n">
-        <v>95.95268</v>
+        <v>95.95482</v>
       </c>
       <c r="UU2" t="n">
-        <v>95.45223</v>
+        <v>95.45449000000001</v>
       </c>
       <c r="UV2" t="n">
-        <v>95.59498000000001</v>
+        <v>95.59717999999999</v>
       </c>
       <c r="UW2" t="n">
-        <v>95.55332</v>
+        <v>95.5553</v>
       </c>
       <c r="UX2" t="n">
-        <v>96.59963</v>
+        <v>96.60186</v>
       </c>
       <c r="UY2" t="n">
-        <v>97.06323999999999</v>
+        <v>97.06569</v>
       </c>
       <c r="UZ2" t="n">
-        <v>97.98041000000001</v>
+        <v>97.98262</v>
       </c>
       <c r="VA2" t="n">
-        <v>98.76922</v>
+        <v>98.77143</v>
       </c>
       <c r="VB2" t="n">
-        <v>98.52339000000001</v>
+        <v>98.52576000000001</v>
       </c>
       <c r="VC2" t="n">
-        <v>98.38491999999999</v>
+        <v>98.38721</v>
       </c>
       <c r="VD2" t="n">
-        <v>98.47342</v>
+        <v>98.47565</v>
       </c>
       <c r="VE2" t="n">
-        <v>98.51024</v>
+        <v>98.51251999999999</v>
       </c>
       <c r="VF2" t="n">
-        <v>98.58436</v>
+        <v>98.58694</v>
       </c>
       <c r="VG2" t="n">
-        <v>98.52348000000001</v>
+        <v>98.52544</v>
       </c>
       <c r="VH2" t="n">
-        <v>98.66783</v>
+        <v>98.67009</v>
       </c>
       <c r="VI2" t="n">
-        <v>98.47157</v>
+        <v>98.47385</v>
       </c>
       <c r="VJ2" t="n">
-        <v>97.60687</v>
+        <v>97.6091</v>
       </c>
       <c r="VK2" t="n">
-        <v>97.42944</v>
+        <v>97.43168</v>
       </c>
       <c r="VL2" t="n">
-        <v>98.04378</v>
+        <v>98.04592</v>
       </c>
       <c r="VM2" t="n">
-        <v>98.18986</v>
+        <v>98.19215</v>
       </c>
       <c r="VN2" t="n">
-        <v>98.55500000000001</v>
+        <v>98.55735</v>
       </c>
       <c r="VO2" t="n">
-        <v>97.85406</v>
+        <v>97.85639999999999</v>
       </c>
       <c r="VP2" t="n">
-        <v>97.31621</v>
+        <v>97.31847</v>
       </c>
       <c r="VQ2" t="n">
-        <v>97.55029</v>
+        <v>97.55242</v>
       </c>
       <c r="VR2" t="n">
-        <v>97.44184</v>
+        <v>97.44423</v>
       </c>
       <c r="VS2" t="n">
-        <v>96.97717</v>
+        <v>96.97911000000001</v>
       </c>
       <c r="VT2" t="n">
-        <v>96.56504</v>
+        <v>96.56740000000001</v>
       </c>
       <c r="VU2" t="n">
-        <v>96.13651</v>
+        <v>96.1386</v>
       </c>
       <c r="VV2" t="n">
-        <v>96.46661</v>
+        <v>96.46902</v>
       </c>
       <c r="VW2" t="n">
-        <v>96.69615</v>
+        <v>96.69831000000001</v>
       </c>
       <c r="VX2" t="n">
-        <v>96.44813000000001</v>
+        <v>96.45023</v>
       </c>
       <c r="VY2" t="n">
-        <v>96.98823</v>
+        <v>96.99041</v>
       </c>
       <c r="VZ2" t="n">
-        <v>96.60675999999999</v>
+        <v>96.60916</v>
       </c>
       <c r="WA2" t="n">
-        <v>96.60348999999999</v>
+        <v>96.60581999999999</v>
       </c>
       <c r="WB2" t="n">
-        <v>96.34735999999999</v>
+        <v>96.34961</v>
       </c>
       <c r="WC2" t="n">
-        <v>96.33225</v>
+        <v>96.33432999999999</v>
       </c>
       <c r="WD2" t="n">
-        <v>96.1777</v>
+        <v>96.18104</v>
       </c>
       <c r="WE2" t="n">
-        <v>95.72703</v>
+        <v>95.72618</v>
       </c>
       <c r="WF2" t="n">
-        <v>97.42215</v>
+        <v>97.42395</v>
       </c>
       <c r="WG2" t="n">
-        <v>97.57531</v>
+        <v>97.57252</v>
       </c>
       <c r="WH2" t="n">
-        <v>97.5942</v>
+        <v>97.59162999999999</v>
       </c>
       <c r="WI2" t="n">
-        <v>98.18419</v>
+        <v>98.18127</v>
       </c>
       <c r="WJ2" t="n">
-        <v>98.41036</v>
+        <v>98.40844</v>
       </c>
       <c r="WK2" t="n">
-        <v>99.35145</v>
+        <v>99.35008000000001</v>
       </c>
       <c r="WL2" t="n">
-        <v>99.20783</v>
+        <v>99.20537</v>
       </c>
       <c r="WM2" t="n">
-        <v>99.07459</v>
+        <v>99.07344999999999</v>
       </c>
       <c r="WN2" t="n">
-        <v>98.62031</v>
+        <v>98.61984</v>
       </c>
       <c r="WO2" t="n">
-        <v>99.05546</v>
+        <v>99.05638999999999</v>
       </c>
       <c r="WP2" t="n">
-        <v>98.45626</v>
+        <v>98.45405</v>
       </c>
       <c r="WQ2" t="n">
-        <v>97.74824</v>
+        <v>97.75099</v>
       </c>
       <c r="WR2" t="n">
-        <v>97.38034</v>
+        <v>97.38025</v>
       </c>
       <c r="WS2" t="n">
-        <v>97.35469999999999</v>
+        <v>97.35272999999999</v>
       </c>
       <c r="WT2" t="n">
-        <v>97.40666</v>
+        <v>97.40640999999999</v>
       </c>
       <c r="WU2" t="n">
-        <v>97.34307</v>
+        <v>97.35756000000001</v>
       </c>
       <c r="WV2" t="n">
-        <v>96.96093999999999</v>
+        <v>96.98555</v>
       </c>
       <c r="WW2" t="n">
-        <v>96.79638</v>
+        <v>96.83511</v>
       </c>
       <c r="WX2" t="n">
-        <v>97.06085</v>
+        <v>97.10723</v>
+      </c>
+      <c r="WY2" t="n">
+        <v>96.31955000000001</v>
+      </c>
+      <c r="WZ2" t="n">
+        <v>95.92522</v>
+      </c>
+      <c r="XA2" t="n">
+        <v>95.92666</v>
       </c>
     </row>
   </sheetData>
